--- a/similarities/split_global/harmonic_similarity_timestamps_301.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_301.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:42.528000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.921537', '0:00:05.694779')]</t>
+          <t>('0:01:56.660000', '0:02:01.420000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=1.921537']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:01:04.871315', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:31.370000', '0:00:42.610000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>jaah_45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['B:min7', 'E:7', 'A:maj6']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:43.610000', '0:00:45.410000')]</t>
+          <t>('0:00:20.300000', '0:00:23.100000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:01:00.690000', '0:01:05.210000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=20.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=60.69</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+          <t>('0:01:10.519024', '0:01:22.732721')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.014000', '0:00:24.195000')]</t>
+          <t>('0:00:32.200000', '0:00:40.880000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=15.014']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'D'], ['G', 'C', 'G/3']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:min/D', 'D:(3,5,b7,b9)', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:37.239569', '0:00:40.954761'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:01:33.100000', '0:01:51.540000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:01.800000', '0:01:09.440000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:55.260000', '0:01:01')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=93.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=55.26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:12.241493', '0:00:16.525575')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=12.241493</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:33.270000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:44.110000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
+          <t>('0:00:10.160000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.360000', '0:00:13.580000')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=6.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7', 'F:7']]</t>
+          <t>['A:min', 'G#:dim7', 'A:min', 'G#:dim7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min7', 'Bb:7', 'Eb:7']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.630000', '0:00:21.240000')]</t>
+          <t>('0:00:21.900000', '0:00:26.280000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:02.260000', '0:00:03.940000')]</t>
+          <t>('0:00:00.240000', '0:00:09.600000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=12.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=21.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=2.26']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=0.24</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:21.560000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:54.380000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:02:20.580000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=140.58</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
